--- a/Scripts/Volcanes.xlsx
+++ b/Scripts/Volcanes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Volcán</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Michinmahuida</t>
+  </si>
+  <si>
+    <t>Maca</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,173 +850,168 @@
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>-44.076402000000002</v>
-      </c>
-      <c r="C21" s="5">
-        <v>-72.860380000000006</v>
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-45.107818999999999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-73.169573</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-44.076402000000002</v>
+      </c>
+      <c r="C22" s="5">
+        <v>-72.860380000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="5">
         <v>-44.696649000000001</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C23" s="5">
         <v>-73.075828000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5">
         <v>-42.798888890000001</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>-72.445555560000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5">
-        <v>-39.909329</v>
-      </c>
-      <c r="C24" s="5">
-        <v>-72.037678</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>-41.104166999999997</v>
+        <v>-39.909329</v>
       </c>
       <c r="C25" s="5">
-        <v>-72.495833000000005</v>
+        <v>-72.037678</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-41.104166999999997</v>
+      </c>
+      <c r="C26" s="5">
+        <v>-72.495833000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>-40.590739999999997</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>-72.111074000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B28" s="9">
         <v>-39.503889000000001</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>-71.709166999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B29" s="9">
         <v>-50.96</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>-73.58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B30" s="9">
         <v>-38.965443</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>-71.517284000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B31" s="9">
         <v>-41.160848999999999</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="9">
         <v>-71.88749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B32" s="9">
         <v>-49.36</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>-73.27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5">
-        <v>-39.420253000000002</v>
-      </c>
-      <c r="C32" s="5">
-        <v>-71.939640999999995</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5">
-        <v>-40.972147</v>
+        <v>-39.420253000000002</v>
       </c>
       <c r="C33" s="5">
-        <v>-72.267741000000001</v>
+        <v>-71.939640999999995</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
-        <v>-43.50188</v>
+        <v>-40.972147</v>
       </c>
       <c r="C34" s="5">
-        <v>-72.799359999999993</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+        <v>-72.267741000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5">
-        <v>-41.785119999999999</v>
+        <v>-43.50188</v>
       </c>
       <c r="C35" s="5">
-        <v>-72.397108000000003</v>
+        <v>-72.799359999999993</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -1021,69 +1019,85 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5">
-        <v>-40.933329999999998</v>
+        <v>-41.785119999999999</v>
       </c>
       <c r="C36" s="5">
-        <v>-75.030330000000006</v>
-      </c>
+        <v>-72.397108000000003</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5">
-        <v>-41.6</v>
+        <v>-40.933329999999998</v>
       </c>
       <c r="C37" s="5">
-        <v>-74.95</v>
+        <v>-75.030330000000006</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="5">
-        <v>-46.1</v>
+        <v>-41.6</v>
       </c>
       <c r="C38" s="5">
-        <v>-75.683329999999998</v>
+        <v>-74.95</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>49.416670000000003</v>
+        <v>-46.1</v>
       </c>
       <c r="C39" s="5">
-        <v>-76.966669999999993</v>
+        <v>-75.683329999999998</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <v>49.416670000000003</v>
+      </c>
+      <c r="C40" s="5">
+        <v>-76.966669999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B41" s="19">
         <v>-46.083329999999997</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C41" s="9">
         <v>-76.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B42" s="9">
         <v>-49.166670000000003</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C42" s="9">
         <v>-76.566670000000002</v>
       </c>
     </row>

--- a/Scripts/Volcanes.xlsx
+++ b/Scripts/Volcanes.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>Volcán</t>
-  </si>
-  <si>
     <t>Latitud</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Tronador</t>
   </si>
   <si>
-    <t>Antillanca - Casablanca</t>
-  </si>
-  <si>
     <t>MD07-3088</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>Maca</t>
+  </si>
+  <si>
+    <t>Antillanca-Casablanca</t>
+  </si>
+  <si>
+    <t>Volcan</t>
   </si>
 </sst>
 </file>
@@ -620,9 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -631,18 +629,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7">
         <v>-50.33</v>
@@ -653,7 +651,7 @@
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9">
         <v>-40.751665000000003</v>
@@ -664,7 +662,7 @@
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>-41.884450000000001</v>
@@ -675,7 +673,7 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>-47.19</v>
@@ -686,7 +684,7 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9">
         <v>-52.325000000000003</v>
@@ -697,7 +695,7 @@
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>-39.255540000000003</v>
@@ -708,7 +706,7 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>-41.332498000000001</v>
@@ -719,7 +717,7 @@
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>-40.308</v>
@@ -730,7 +728,7 @@
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5">
         <v>-45.0625</v>
@@ -741,7 +739,7 @@
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>-42.837499999999999</v>
@@ -752,7 +750,7 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>-43.194167</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9">
         <v>-54.96</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>-41.879443000000002</v>
@@ -785,7 +783,7 @@
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>-39.883333</v>
@@ -796,7 +794,7 @@
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>-45.900013999999999</v>
@@ -807,7 +805,7 @@
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="12">
         <v>-42.382207000000001</v>
@@ -818,7 +816,7 @@
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12">
         <v>-39.638280000000002</v>
@@ -829,7 +827,7 @@
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>-38.697004</v>
@@ -840,7 +838,7 @@
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9">
         <v>-49.01</v>
@@ -851,7 +849,7 @@
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9">
         <v>-45.107818999999999</v>
@@ -862,7 +860,7 @@
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5">
         <v>-44.076402000000002</v>
@@ -873,7 +871,7 @@
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>-44.696649000000001</v>
@@ -884,7 +882,7 @@
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5">
         <v>-42.798888890000001</v>
@@ -895,7 +893,7 @@
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>-39.909329</v>
@@ -906,7 +904,7 @@
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>-41.104166999999997</v>
@@ -917,7 +915,7 @@
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>-40.590739999999997</v>
@@ -928,7 +926,7 @@
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="9">
         <v>-39.503889000000001</v>
@@ -939,7 +937,7 @@
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="9">
         <v>-50.96</v>
@@ -950,7 +948,7 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="9">
         <v>-38.965443</v>
@@ -961,7 +959,7 @@
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="9">
         <v>-41.160848999999999</v>
@@ -972,7 +970,7 @@
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="9">
         <v>-49.36</v>
@@ -983,7 +981,7 @@
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
         <v>-39.420253000000002</v>
@@ -994,7 +992,7 @@
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5">
         <v>-40.972147</v>
@@ -1005,7 +1003,7 @@
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5">
         <v>-43.50188</v>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="5">
         <v>-41.785119999999999</v>
@@ -1037,7 +1035,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5">
         <v>-40.933329999999998</v>
@@ -1048,7 +1046,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="5">
         <v>-41.6</v>
@@ -1059,7 +1057,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>-46.1</v>
@@ -1070,10 +1068,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
-        <v>49.416670000000003</v>
+        <v>-49.416670000000003</v>
       </c>
       <c r="C40" s="5">
         <v>-76.966669999999993</v>
@@ -1081,7 +1079,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="19">
         <v>-46.083329999999997</v>
@@ -1092,7 +1090,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="9">
         <v>-49.166670000000003</v>

--- a/Scripts/Volcanes.xlsx
+++ b/Scripts/Volcanes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Latitud</t>
   </si>
@@ -122,25 +122,7 @@
     <t>Yate</t>
   </si>
   <si>
-    <t>MD07-3098</t>
-  </si>
-  <si>
-    <t>MD07-3100</t>
-  </si>
-  <si>
     <t>Tronador</t>
-  </si>
-  <si>
-    <t>MD07-3088</t>
-  </si>
-  <si>
-    <t>MD07-3081</t>
-  </si>
-  <si>
-    <t>MD07-3119</t>
-  </si>
-  <si>
-    <t>MD07-3082</t>
   </si>
   <si>
     <t>Cay</t>
@@ -282,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,7 +318,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,9 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -629,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -651,7 +634,7 @@
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9">
         <v>-40.751665000000003</v>
@@ -728,7 +711,7 @@
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>-45.0625</v>
@@ -849,7 +832,7 @@
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9">
         <v>-45.107818999999999</v>
@@ -882,7 +865,7 @@
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5">
         <v>-42.798888890000001</v>
@@ -959,7 +942,7 @@
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="9">
         <v>-41.160848999999999</v>
@@ -1033,72 +1016,6 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="5">
-        <v>-40.933329999999998</v>
-      </c>
-      <c r="C37" s="5">
-        <v>-75.030330000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="5">
-        <v>-41.6</v>
-      </c>
-      <c r="C38" s="5">
-        <v>-74.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5">
-        <v>-46.1</v>
-      </c>
-      <c r="C39" s="5">
-        <v>-75.683329999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="5">
-        <v>-49.416670000000003</v>
-      </c>
-      <c r="C40" s="5">
-        <v>-76.966669999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="19">
-        <v>-46.083329999999997</v>
-      </c>
-      <c r="C41" s="9">
-        <v>-76.099999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9">
-        <v>-49.166670000000003</v>
-      </c>
-      <c r="C42" s="9">
-        <v>-76.566670000000002</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
